--- a/data/Course Booklet 2019/CS_UG_Curriculum.xlsx
+++ b/data/Course Booklet 2019/CS_UG_Curriculum.xlsx
@@ -8,10 +8,10 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="curriculum" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="minor" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="honors" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="double-major" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="Bachelor of Technology" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Minor" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Honors" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Double Major" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -446,8 +446,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A47" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A60" activeCellId="0" sqref="A60"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29017,7 +29017,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
